--- a/taxi_web/data_example.xlsx
+++ b/taxi_web/data_example.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanga\Documents\GitHub\E5-GIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanga\Documents\GitHub\E5-GIT\taxi_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0791B3B0-8584-4D64-8DF0-7E609F78099C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA02744-C62D-4122-934F-94B8847569DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" xr2:uid="{0D89AE1E-5D87-4C00-AC82-CB97FADC2F23}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="USERS" sheetId="1" r:id="rId1"/>
+    <sheet name="RoomList" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
     <t>USERS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +129,94 @@
   </si>
   <si>
     <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roomId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>택승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이탤릭체; 나중에 추가해야하는 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가정보 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chatLink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pId1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pId2</t>
+  </si>
+  <si>
+    <t>pId3</t>
+  </si>
+  <si>
+    <t>pId4</t>
+  </si>
+  <si>
+    <t>pId5</t>
+  </si>
+  <si>
+    <t>RoomList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +224,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +242,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -183,7 +281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -191,6 +289,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -507,9 +608,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD21B6C-867B-4EF1-9CED-4D66A6048CF6}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -522,91 +625,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>1000</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
       </c>
       <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
@@ -620,31 +691,31 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5">
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="I5">
-        <v>2</v>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
       </c>
       <c r="J5" t="s">
         <v>25</v>
@@ -652,16 +723,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
@@ -672,46 +743,258 @@
       <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
+        <v>4000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8">
         <v>5000</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7767F5-23E4-4A0C-A954-1D32E5B9A98E}">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="14.69921875" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" customWidth="1"/>
+    <col min="4" max="9" width="14.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4">
+        <v>1000</v>
+      </c>
+      <c r="K4">
+        <v>4000</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5">
+        <v>2000</v>
+      </c>
+      <c r="K5">
+        <v>3000</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6">
+        <v>2000</v>
+      </c>
+      <c r="K6">
+        <v>3000</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/taxi_web/data_example.xlsx
+++ b/taxi_web/data_example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanga\Documents\GitHub\E5-GIT\taxi_web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\E5-GIT\taxi_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA02744-C62D-4122-934F-94B8847569DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CEC867-6D8C-4687-BAA0-13D0E9110723}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" xr2:uid="{0D89AE1E-5D87-4C00-AC82-CB97FADC2F23}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8970" activeTab="1" xr2:uid="{0D89AE1E-5D87-4C00-AC82-CB97FADC2F23}"/>
   </bookViews>
   <sheets>
     <sheet name="USERS" sheetId="1" r:id="rId1"/>
@@ -610,22 +610,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD21B6C-867B-4EF1-9CED-4D66A6048CF6}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.09765625" customWidth="1"/>
-    <col min="4" max="4" width="14.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -657,7 +657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -689,7 +689,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -721,7 +721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3000</v>
       </c>
@@ -753,7 +753,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4000</v>
       </c>
@@ -785,7 +785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5000</v>
       </c>
@@ -828,23 +828,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7767F5-23E4-4A0C-A954-1D32E5B9A98E}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14.69921875" customWidth="1"/>
-    <col min="3" max="3" width="11.796875" customWidth="1"/>
-    <col min="4" max="9" width="14.69921875" customWidth="1"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="9" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>34</v>
       </c>
@@ -852,7 +853,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -896,7 +897,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -928,7 +929,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -960,7 +961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -992,7 +993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>40</v>
       </c>
